--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641532.5663806411</v>
+        <v>646478.7074706263</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253917</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7899931.749887018</v>
+        <v>8566635.491477171</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834604</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>101.582812494334</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4718843232872</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>124.2290557831226</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>300.086729250683</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>199.991345729353</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>212.0407182056495</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>139.7914948446751</v>
+        <v>181.1434624630636</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>187.8010630083363</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>165.4724910259512</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>263.6549085087336</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>251.1229502582098</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,10 +1435,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1537,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>161.6737988100371</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.515078398125952</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5392640871573</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>3.60264190078542</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979432</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.9086344760396</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>137.8090391299105</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.2398067845343</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>44.34277381716467</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>124.229055783122</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>105.939274187471</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3746,16 +3748,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>154.2750807968577</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>101.9929615813388</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>191.4416113847519</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>98.7735572922967</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>42.0468456551741</v>
+        <v>49.87597792716521</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4195,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1031.317625760397</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C2" t="n">
-        <v>604.4168957736968</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D2" t="n">
-        <v>501.8079942642684</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>75.83105441212597</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74727664193027</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>1090.853728201993</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1474.987448089748</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2260.574204588538</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1864.182854888885</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1452.462856056632</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>1047.125586011523</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>1185.44077228823</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>1185.44077228823</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>1185.44077228823</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>1292.808301277817</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1966.609952391131</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1966.609952391131</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P3" t="n">
-        <v>2640.411603504445</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
-        <v>2640.411603504445</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1009.436299499784</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>957.4444971530289</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>957.4444971530289</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E4" t="n">
-        <v>957.4444971530289</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F4" t="n">
-        <v>785.5827229275893</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2505.257252795456</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2225.07280429576</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1943.361336903789</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1668.508933076302</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1425.945036522107</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1199.602268211849</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.035865546505</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>701.1351355598056</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>277.8425147448058</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>75.83105441212597</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>2048.629262475834</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>2722.430913589148</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2364.941498715398</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.941498715398</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X5" t="n">
-        <v>1953.221499883145</v>
+        <v>838.3849181013534</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.884229838035</v>
+        <v>433.0476480562437</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>515.5329466256644</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1189.334597738979</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1850.544054561976</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1570.35960606228</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1570.35960606228</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1570.35960606228</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1327.795709508086</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2160.082153146776</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.181423160076</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.888802345077</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>883.9118624929341</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>44.79688341939483</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.853728201993</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>1090.853728201993</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M8" t="n">
-        <v>1090.853728201993</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N8" t="n">
-        <v>1257.271276480617</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O8" t="n">
-        <v>1931.072927593931</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="X8" t="n">
-        <v>2581.227383443012</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>2579.930517438306</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>205.6899987133986</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>894.0649040444501</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>722.0923409233661</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7755680501368</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.687984891219</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V10" t="n">
-        <v>1827.989941448456</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.137537620968</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="X10" t="n">
-        <v>1310.573641066774</v>
+        <v>1484.989246614794</v>
       </c>
       <c r="Y10" t="n">
-        <v>1084.230872756516</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1185.979581193767</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.979581193767</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1185.979581193767</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>760.0026413416243</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>760.0026413416243</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>355.6635789310729</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N11" t="n">
-        <v>1402.051920498411</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>2618.063619462288</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U11" t="n">
-        <v>2359.7087100587</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2002.21929518495</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>1605.827945485297</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1605.827945485297</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1605.827945485297</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>737.4303189019267</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2071.554778200025</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2071.554778200025</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U13" t="n">
-        <v>2071.554778200025</v>
+        <v>2060.775828267996</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1779.064360876025</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1504.211957048538</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1261.648060494343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1897.245279252508</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>1470.344549265809</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.051928450809</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>621.0749885986664</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>195.9508067880666</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>89.34548952831176</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>1402.051920498411</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>1592.543782971651</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>2266.345434084965</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>2722.430913589148</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2317.093643544039</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>333.5927505132859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>433.5136365409612</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>433.5136365409612</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.315287654275</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>1781.11693876759</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>568.1301936884686</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>396.1576305673846</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>396.1576305673846</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>229.9494247202381</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>58.08765049479854</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2064.726598204046</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1821.387250429946</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1541.20280193025</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.491334538279</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>984.6389307107922</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>984.6389307107922</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.2961624005343</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5650,16 +5652,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,25 +5697,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="Y19" t="n">
         <v>1375.649804642131</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3833.214576747414</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2039.376393044857</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1067.07923602298</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>895.1066729018962</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>731.7899000286669</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>565.5816941815204</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>393.7199199560808</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>227.462950250313</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6175,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.151869599499</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1483.587973045304</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1257.245204735046</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6427,7 +6429,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,13 +6545,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>188.2350251358961</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113951</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>612.3452565994986</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C34" t="n">
-        <v>440.3726934784146</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>612.3452565994986</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1013.622061704626</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>841.6494985835419</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>678.3327257103126</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>512.1245198631661</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1992.33777973203</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1947.547099108631</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1672.694695281144</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.130798726949</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.788030416692</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7174,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7257,19 +7259,19 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1782.102586447038</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1782.102586447038</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>3958.704927421521</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>3786.732364300437</v>
       </c>
       <c r="D40" t="n">
-        <v>246.0989818976742</v>
+        <v>3623.415591427207</v>
       </c>
       <c r="E40" t="n">
-        <v>246.0989818976742</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>4617.777560998039</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>4617.777560998039</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>4617.777560998039</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>4375.213664443844</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>4148.870896133586</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1060.475384019803</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>633.5746540331036</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>210.2820332181038</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>54.44861827178296</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>255.3970861732024</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>970.9053941487015</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="M41" t="n">
-        <v>2075.853571611725</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>2266.345434084965</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>2501.505342633781</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.150433230194</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>1885.661018356443</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>1885.661018356443</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>1885.661018356443</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>1480.323748311333</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>326.146107551374</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>326.146107551374</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>326.146107551374</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M42" t="n">
-        <v>999.9477586646882</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.749409778002</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>655.7147283729668</v>
+        <v>438.306477705842</v>
       </c>
       <c r="C43" t="n">
-        <v>483.7421652518827</v>
+        <v>266.333914584758</v>
       </c>
       <c r="D43" t="n">
-        <v>320.4253923786534</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E43" t="n">
-        <v>154.217186531507</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2064.726598204046</v>
+        <v>2177.466778775614</v>
       </c>
       <c r="T43" t="n">
-        <v>2064.726598204046</v>
+        <v>1934.127431001514</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.351233168943</v>
+        <v>1653.942982501819</v>
       </c>
       <c r="V43" t="n">
-        <v>1589.639765776972</v>
+        <v>1372.231515109847</v>
       </c>
       <c r="W43" t="n">
-        <v>1314.787361949485</v>
+        <v>1097.37911128236</v>
       </c>
       <c r="X43" t="n">
-        <v>1072.22346539529</v>
+        <v>854.8152147281655</v>
       </c>
       <c r="Y43" t="n">
-        <v>845.8806970850324</v>
+        <v>628.4724464179076</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1006.244800061301</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>579.3440700746016</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>479.5728000823827</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L44" t="n">
-        <v>417.0520770886785</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M44" t="n">
-        <v>1090.853728201993</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N44" t="n">
-        <v>1257.271276480617</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O44" t="n">
-        <v>1931.072927593931</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2501.505342633781</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.150433230194</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2243.150433230194</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2243.150433230194</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1831.430434397941</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1426.093164352832</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>61.8952612336948</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>652.3801878020344</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>652.3801878020344</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>652.3801878020344</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>652.3801878020344</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>652.3801878020344</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>1316.97146190481</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1013.893096216726</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>841.920533095642</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>678.6037602224127</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.677197185216</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.965729793244</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>1672.965729793244</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>1430.40183323905</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.059064928792</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7985,16 +7987,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O2" t="n">
-        <v>425.4048178285041</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8055,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>131.5488299967591</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>690.5396891392527</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8301,16 +8303,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>487.0847740255431</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>702.3785696021157</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8462,16 +8464,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>205.378156449218</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8535,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>184.163001611674</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>370.680920470421</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>384.2267507842765</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>229.806982056266</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>123.3294217400761</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234576</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>882.2851839951743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,16 +9880,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>835.188203321007</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10112,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>224.2932485068573</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10121,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>751.2280472965109</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>153.2864345924293</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644426</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,16 +10430,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10589,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10905,22 +10907,22 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>151.96049528493</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>186.308991095902</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>229.806982056266</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>214.4717271710005</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>205.378156449218</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>390.0005948959937</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,13 +11375,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>693.0751584803598</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>31.23478623197195</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>4.648410051341983</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>274.8675256165728</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>294.7564076992885</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.9917581079248</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.8063191292122</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>18.44967133088755</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470262823</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>32.44379835996264</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>40.43535331127316</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.83953384262105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.326677470262823</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>234.5515789008867</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.45454936137502</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.60684960120393</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>267.4420896567633</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>66.44073542471769</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>85.94099262994683</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>320.286137314553</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>122.4992781335009</v>
+        <v>114.6701458615098</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>741986.4952008951</v>
+        <v>736106.114333444</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>741986.4952008951</v>
+        <v>736106.114333444</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>741986.4952008951</v>
+        <v>736106.114333444</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>500881.3404215671</v>
+        <v>734868.4182409843</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>500881.3404215672</v>
+        <v>734868.4182409842</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746282.404074405</v>
+        <v>746282.4040744051</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.4040744049</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746282.4040744049</v>
+        <v>746282.4040744051</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500881.3404215671</v>
+        <v>734868.4182409842</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500881.3404215671</v>
+        <v>734868.4182409842</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>334904.5341064187</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.905171854</v>
+        <v>318225.6019343178</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.905171854</v>
+        <v>318225.6019343178</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040325</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="I2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="J2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="K2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="L2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>318225.601934318</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.905171854</v>
+        <v>318225.6019343178</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.287616561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="C4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="F4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784776</v>
@@ -26439,25 +26441,25 @@
         <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="O4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="P4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143443.9871865501</v>
+        <v>-110190.1790983668</v>
       </c>
       <c r="C6" t="n">
-        <v>84643.31657713391</v>
+        <v>76214.55431637043</v>
       </c>
       <c r="D6" t="n">
-        <v>84643.31657713382</v>
+        <v>76214.55431637034</v>
       </c>
       <c r="E6" t="n">
-        <v>117402.3379385784</v>
+        <v>-50633.38906877469</v>
       </c>
       <c r="F6" t="n">
-        <v>117402.3379385784</v>
+        <v>156798.8985477863</v>
       </c>
       <c r="G6" t="n">
-        <v>-5230.441842431057</v>
+        <v>151095.0568842735</v>
       </c>
       <c r="H6" t="n">
-        <v>158720.6789677548</v>
+        <v>158720.6789677549</v>
       </c>
       <c r="I6" t="n">
         <v>158720.6789677548</v>
       </c>
       <c r="J6" t="n">
-        <v>-19356.24952102489</v>
+        <v>13187.00903293841</v>
       </c>
       <c r="K6" t="n">
-        <v>158720.6789677548</v>
+        <v>158720.6789677549</v>
       </c>
       <c r="L6" t="n">
         <v>158720.6789677548</v>
       </c>
       <c r="M6" t="n">
+        <v>-14409.81223788467</v>
+      </c>
+      <c r="N6" t="n">
         <v>158720.6789677549</v>
       </c>
-      <c r="N6" t="n">
-        <v>158720.6789677548</v>
-      </c>
       <c r="O6" t="n">
-        <v>117402.3379385783</v>
+        <v>156798.8985477865</v>
       </c>
       <c r="P6" t="n">
-        <v>117402.3379385784</v>
+        <v>156798.8985477863</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548037</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717821</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658548037</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>245.3945739651544</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>317.4768821125156</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27436,16 +27438,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>118.7809531665859</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>37.45454936137438</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>115.5631513979317</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>221.725824724268</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.86523609070952</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>267.8113039992551</v>
+        <v>226.4593363808666</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>91.09328970971509</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.6068496012042</v>
       </c>
     </row>
     <row r="11">
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O2" t="n">
-        <v>388.01385847248</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>108.4520494844312</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>465.7417458120015</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>680.607728397287</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>168.098533614772</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>162.8199733981324</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>333.1055586601897</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>192.4160227002419</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>100.9301879067428</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890115</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>844.8942246391501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>797.797243964983</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>188.528647712048</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36841,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>713.9484244620648</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>130.1896540801013</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885611</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37625,22 +37627,22 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>192.4160227002419</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>168.098533614772</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>352.6096355399696</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,13 +38095,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>671.3043172755312</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646478.7074706263</v>
+        <v>645760.7173557674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.2553066834604</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>124.2290557831226</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>162.00571204901</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -879,7 +879,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300.086729250683</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>319.2263958899266</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.378995526347924</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,10 +1141,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630636</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>292.0778619076204</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4724910259512</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1229502582098</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>11.12043047005083</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.515078398125952</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.2730214979432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.44420510686396</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>137.8090391299105</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2769,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>24.43802729683371</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>5.089495708064081</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>121.2482518332238</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.44420510686396</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.939274187471</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>290.2412846893639</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262175</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>101.9929615813388</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>110.7442840088803</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>49.87597792716521</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.8759779271652</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043.959734409802</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.059004423102</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4330,19 +4330,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
         <v>1100.603903091853</v>
@@ -4363,19 +4363,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.231657670528</v>
+        <v>955.1153740588601</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.934791665823</v>
+        <v>549.7781040137504</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.750951392604</v>
+        <v>543.4296944263992</v>
       </c>
       <c r="C4" t="n">
-        <v>313.77838827152</v>
+        <v>371.4571313053152</v>
       </c>
       <c r="D4" t="n">
-        <v>188.2944935410931</v>
+        <v>208.1403584320859</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>902.2596884149276</v>
+        <v>959.9384314487228</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.9169201046697</v>
+        <v>733.5956631384648</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.9297397222204</v>
+        <v>1780.988227140366</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.496266633259</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1250.104916933606</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>838.3849181013534</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>433.0476480562437</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.7432593109769</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>458.7432593109769</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>458.7432593109769</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>458.7432593109769</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030285</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939483</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>595.1637600336855</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.128972506399</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.128972506399</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>180.6345712298752</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924752</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924752</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>205.6899987133986</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978367</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168989</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V10" t="n">
-        <v>1727.553143168989</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W10" t="n">
-        <v>1727.553143168989</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X10" t="n">
-        <v>1484.989246614794</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.305451315162</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>2396.59155273422</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>3372.842611220921</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>4217.987261371733</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
         <v>5003.847243949504</v>
@@ -5068,10 +5068,10 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4782.921672994137</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
         <v>4529.262127278774</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>379.221077120493</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>737.4303189019267</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L12" t="n">
-        <v>737.4303189019267</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M12" t="n">
-        <v>737.4303189019267</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N12" t="n">
-        <v>1826.745265374797</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O12" t="n">
-        <v>1826.745265374797</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P12" t="n">
-        <v>1826.745265374797</v>
+        <v>1678.457077765419</v>
       </c>
       <c r="Q12" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.1393234720196</v>
+        <v>784.6690189964459</v>
       </c>
       <c r="C13" t="n">
-        <v>673.1667603509355</v>
+        <v>612.6964558753618</v>
       </c>
       <c r="D13" t="n">
-        <v>509.8499874777062</v>
+        <v>449.3796830021325</v>
       </c>
       <c r="E13" t="n">
-        <v>343.6417816305598</v>
+        <v>283.1714771549861</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>111.3097029295465</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>111.3097029295465</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>2060.775828267996</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V13" t="n">
-        <v>1779.064360876025</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W13" t="n">
-        <v>1504.211957048538</v>
+        <v>1443.741652572964</v>
       </c>
       <c r="X13" t="n">
-        <v>1261.648060494343</v>
+        <v>1201.17775601877</v>
       </c>
       <c r="Y13" t="n">
-        <v>1035.305292184085</v>
+        <v>974.8349877085116</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4752.720165425832</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.365256022244</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4136.875841148494</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,49 +5518,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576507</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076927</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M17" t="n">
         <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982686</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.856391133499</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710918</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710918</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>4025.820723818556</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291426</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291426</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5709,16 +5709,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.056897064296</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1589.056897064296</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1589.056897064296</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5952,10 +5952,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.8905159778161</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>464.906172222724</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478503</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>188.2350251358961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>903.7433331113951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1833.368380730672</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.65448214973</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636431</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787243</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6785,16 +6785,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O33" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
         <v>1446.844867123559</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.5168264363576</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>324.5442633152736</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>913.0255634586812</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6827951484232</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7259,16 +7259,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
         <v>1446.844867123559</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3958.704927421521</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3786.732364300437</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.415591427207</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4897.962009497734</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4617.777560998039</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4617.777560998039</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4617.777560998039</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4375.213664443844</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>4148.870896133586</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.578858279949</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C41" t="n">
-        <v>2076.678128293249</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.385507478249</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.408567626107</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155067</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3970861732024</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>970.9053941487015</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405491</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563419</v>
+        <v>4796.630198354348</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2923.427222571479</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>962.2593607269207</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>962.2593607269207</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>962.2593607269207</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>962.2593607269207</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="O42" t="n">
-        <v>962.2593607269207</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P42" t="n">
-        <v>1362.599788512017</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>438.306477705842</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>266.333914584758</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>266.333914584758</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>266.333914584758</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>266.333914584758</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.466778775614</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.127431001514</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1653.942982501819</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1372.231515109847</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1097.37911128236</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>854.8152147281655</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>628.4724464179076</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
         <v>2111.574999549778</v>
@@ -7648,19 +7648,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1392.305451315162</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2396.59155273422</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>3372.842611220921</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7678,22 +7678,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>379.221077120493</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>969.7060036888327</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L45" t="n">
-        <v>1362.599788512017</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M45" t="n">
-        <v>1362.599788512017</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N45" t="n">
-        <v>1362.599788512017</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O45" t="n">
-        <v>1362.599788512017</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P45" t="n">
-        <v>1362.599788512017</v>
+        <v>1678.457077765419</v>
       </c>
       <c r="Q45" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7791,16 +7791,16 @@
         <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>271.9387191044297</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>100.0769448789901</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0769448789901</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="H46" t="n">
-        <v>100.0769448789901</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>266.2788756958121</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,7 +8066,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
@@ -8078,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,16 +8224,16 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>184.163001611674</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>370.680920470421</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>384.2267507842765</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>400.4816372458998</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239227</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>736.7071336234576</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>835.188203321007</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10123,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>751.2280472965109</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.2202743644426</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10591,7 +10591,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646197</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10670,7 +10670,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>502.225283590884</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,10 +10682,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646197</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10907,19 +10907,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>186.308991095902</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>245.4348216704126</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11311,7 +11311,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>390.0005948959937</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11381,7 +11381,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>419.3774956265373</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U11" t="n">
-        <v>4.648410051341983</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.2378753368763</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>274.8675256165728</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.8063191292122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>2.326677470262823</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>32.44379835996264</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>247.6658524923784</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.1633417818091</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.43535331127316</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25092,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>44.20464122293447</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050431</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>2.326677470262823</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>58.60684960120393</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.648410051341614</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869296925</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>66.44073542471769</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>114.6701458615098</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>48.89490464996159</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734868.4182409843</v>
+        <v>734868.4182409842</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>746282.4040744049</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746282.404074405</v>
+        <v>746282.4040744051</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746282.4040744051</v>
+        <v>746282.404074405</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746282.404074405</v>
+        <v>746282.4040744051</v>
       </c>
     </row>
     <row r="14">
@@ -26316,37 +26316,37 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
+        <v>334904.5341064187</v>
+      </c>
+      <c r="D2" t="n">
         <v>334904.5341064188</v>
       </c>
-      <c r="D2" t="n">
-        <v>334904.5341064187</v>
-      </c>
       <c r="E2" t="n">
-        <v>318225.6019343178</v>
+        <v>318225.6019343179</v>
       </c>
       <c r="F2" t="n">
         <v>318225.6019343178</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="H2" t="n">
         <v>323167.4818040323</v>
       </c>
       <c r="I2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="J2" t="n">
         <v>323167.4818040322</v>
       </c>
-      <c r="J2" t="n">
-        <v>323167.4818040323</v>
-      </c>
       <c r="K2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="L2" t="n">
+        <v>323167.4818040321</v>
+      </c>
+      <c r="M2" t="n">
         <v>323167.4818040322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>323167.4818040323</v>
       </c>
       <c r="N2" t="n">
         <v>323167.4818040323</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.287616561</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481388</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26441,25 +26441,25 @@
         <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
         <v>85368.22527849904</v>
       </c>
       <c r="P4" t="n">
-        <v>85368.22527849904</v>
+        <v>85368.22527849907</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
         <v>76058.47810803246</v>
@@ -26484,28 +26484,28 @@
         <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
         <v>76058.47810803246</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110190.1790983668</v>
+        <v>-110190.1790983669</v>
       </c>
       <c r="C6" t="n">
-        <v>76214.55431637043</v>
+        <v>76214.55431637031</v>
       </c>
       <c r="D6" t="n">
-        <v>76214.55431637034</v>
+        <v>76214.5543163704</v>
       </c>
       <c r="E6" t="n">
-        <v>-50633.38906877469</v>
+        <v>-50705.90616517499</v>
       </c>
       <c r="F6" t="n">
-        <v>156798.8985477863</v>
+        <v>156726.3814513858</v>
       </c>
       <c r="G6" t="n">
-        <v>151095.0568842735</v>
+        <v>151044.026222089</v>
       </c>
       <c r="H6" t="n">
-        <v>158720.6789677549</v>
+        <v>158669.6483055705</v>
       </c>
       <c r="I6" t="n">
-        <v>158720.6789677548</v>
+        <v>158669.6483055705</v>
       </c>
       <c r="J6" t="n">
-        <v>13187.00903293841</v>
+        <v>13135.97837075398</v>
       </c>
       <c r="K6" t="n">
-        <v>158720.6789677549</v>
+        <v>158669.6483055704</v>
       </c>
       <c r="L6" t="n">
-        <v>158720.6789677548</v>
+        <v>158669.6483055704</v>
       </c>
       <c r="M6" t="n">
-        <v>-14409.81223788467</v>
+        <v>-14460.84290006907</v>
       </c>
       <c r="N6" t="n">
-        <v>158720.6789677549</v>
+        <v>158669.6483055705</v>
       </c>
       <c r="O6" t="n">
-        <v>156798.8985477865</v>
+        <v>156726.381451386</v>
       </c>
       <c r="P6" t="n">
-        <v>156798.8985477863</v>
+        <v>156726.3814513859</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
         <v>1250.961810987376</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548037</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717821</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548037</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.3945739651544</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27435,19 +27435,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.45454936137438</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>2.540411739664989</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27554,7 +27554,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.5631513979317</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>88.37640295400359</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27785,16 +27785,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>165.7641609568373</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>109.2060354370381</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402022</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.6068496012042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,16 +34944,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>162.8199733981324</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>333.1055586601897</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>361.8275169509432</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>377.7345989569213</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291133</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>699.4275107890115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>797.797243964983</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36843,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>713.9484244620648</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>86.80031487885611</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37311,7 +37311,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319968</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37390,7 +37390,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319968</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>156.8890316103155</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>209.3101470658145</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38031,7 +38031,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>352.6096355399696</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
@@ -38101,7 +38101,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>396.8624089123077</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
